--- a/dfdata/20220710/EDI-20220710.xlsx
+++ b/dfdata/20220710/EDI-20220710.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6315" yWindow="435" windowWidth="14235" windowHeight="12360" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="10" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'10'!$A:$A</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'10'!$A$1:$N$18</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'11'!$A:$A</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'11'!$A$1:$N$18</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -303,12 +303,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -318,6 +337,9 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -330,6 +352,12 @@
     <xf numFmtId="164" fontId="5" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -428,34 +456,6 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
@@ -967,7 +967,7 @@
       <selection activeCell="F3" sqref="F3:F17"/>
       <selection pane="topRight" activeCell="F3" sqref="F3:F17"/>
       <selection pane="bottomLeft" activeCell="F3" sqref="F3:F17"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:D1"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.75" defaultRowHeight="27" customHeight="1"/>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="B1" s="56" t="inlineStr">
         <is>
-          <t>Jul.10.2022</t>
+          <t>Jul.11.2022</t>
         </is>
       </c>
       <c r="C1" s="57" t="n"/>
@@ -1839,7 +1839,11 @@
         </is>
       </c>
       <c r="B4" s="83" t="n"/>
-      <c r="C4" s="83" t="n"/>
+      <c r="C4" s="83" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
       <c r="D4" s="77">
         <f>B4-C4</f>
         <v/>
@@ -1882,7 +1886,10 @@
       <c r="B5" s="83" t="n">
         <v>136028</v>
       </c>
-      <c r="C5" s="83" t="n"/>
+      <c r="C5" s="83">
+        <f>+10000+800800+778800</f>
+        <v/>
+      </c>
       <c r="D5" s="77">
         <f>B5-C5</f>
         <v/>
@@ -1927,7 +1934,11 @@
         </is>
       </c>
       <c r="B6" s="83" t="n"/>
-      <c r="C6" s="83" t="n"/>
+      <c r="C6" s="83" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
       <c r="D6" s="77">
         <f>B6-C6</f>
         <v/>
@@ -1968,7 +1979,11 @@
         </is>
       </c>
       <c r="B7" s="83" t="n"/>
-      <c r="C7" s="83" t="n"/>
+      <c r="C7" s="83" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
       <c r="D7" s="77">
         <f>B7-C7</f>
         <v/>
@@ -2011,7 +2026,10 @@
       <c r="B8" s="83" t="n">
         <v>1194874</v>
       </c>
-      <c r="C8" s="83" t="n"/>
+      <c r="C8" s="83">
+        <f>+75794+75794+75794+85364+85364+299153+121539+79718+77000+77000+142354+126028+142200+50742+58370+115500+145200</f>
+        <v/>
+      </c>
       <c r="D8" s="77">
         <f>B8-C8</f>
         <v/>
@@ -2052,7 +2070,10 @@
         </is>
       </c>
       <c r="B9" s="83" t="n"/>
-      <c r="C9" s="83" t="n"/>
+      <c r="C9" s="83">
+        <f>+106590</f>
+        <v/>
+      </c>
       <c r="D9" s="77">
         <f>B9-C9</f>
         <v/>
@@ -2095,7 +2116,10 @@
       <c r="B10" s="83" t="n">
         <v>82200</v>
       </c>
-      <c r="C10" s="83" t="n"/>
+      <c r="C10" s="83">
+        <f>+69000+13200+10150</f>
+        <v/>
+      </c>
       <c r="D10" s="77">
         <f>B10-C10</f>
         <v/>
@@ -2138,7 +2162,10 @@
       <c r="B11" s="83" t="n">
         <v>92233</v>
       </c>
-      <c r="C11" s="83" t="n"/>
+      <c r="C11" s="83">
+        <f>+92233</f>
+        <v/>
+      </c>
       <c r="D11" s="77">
         <f>B11-C11</f>
         <v/>
@@ -2181,7 +2208,10 @@
       <c r="B12" s="83" t="n">
         <v>2082200</v>
       </c>
-      <c r="C12" s="83" t="n"/>
+      <c r="C12" s="83">
+        <f>+139700+16500+22000+44000+1800000+60000+44000+87120</f>
+        <v/>
+      </c>
       <c r="D12" s="77">
         <f>B12-C12</f>
         <v/>
@@ -2205,7 +2235,7 @@
         <v/>
       </c>
       <c r="K12" s="85" t="n"/>
-      <c r="L12" s="29" t="n"/>
+      <c r="L12" s="38" t="n"/>
       <c r="M12" s="82">
         <f>J12</f>
         <v/>
@@ -2246,7 +2276,7 @@
         <v/>
       </c>
       <c r="K13" s="75" t="n"/>
-      <c r="L13" s="30" t="n"/>
+      <c r="L13" s="39" t="n"/>
       <c r="M13" s="82">
         <f>J13</f>
         <v/>
@@ -2265,7 +2295,10 @@
       <c r="B14" s="83" t="n">
         <v>1019501</v>
       </c>
-      <c r="C14" s="83" t="n"/>
+      <c r="C14" s="83">
+        <f>+69000+69000+69000+69000+318001+69000+69000+69000+69000+16500+100000+33000+129000+77000</f>
+        <v/>
+      </c>
       <c r="D14" s="77">
         <f>B14-C14</f>
         <v/>
@@ -2308,7 +2341,10 @@
       <c r="B15" s="83" t="n">
         <v>130300</v>
       </c>
-      <c r="C15" s="83" t="n"/>
+      <c r="C15" s="83">
+        <f>+44000+77000+9300</f>
+        <v/>
+      </c>
       <c r="D15" s="77">
         <f>B15-C15</f>
         <v/>
@@ -2349,7 +2385,11 @@
         </is>
       </c>
       <c r="B16" s="83" t="n"/>
-      <c r="C16" s="83" t="n"/>
+      <c r="C16" s="83" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
       <c r="D16" s="77">
         <f>B16-C16</f>
         <v/>
@@ -2390,7 +2430,11 @@
         </is>
       </c>
       <c r="B17" s="75" t="n"/>
-      <c r="C17" s="75" t="n"/>
+      <c r="C17" s="75" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
       <c r="D17" s="77">
         <f>B17-C17</f>
         <v/>
@@ -2568,12 +2612,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="M1:M2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="M1:M2"/>
   </mergeCells>
   <pageMargins left="0.17" right="0.16" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" paperSize="9" scale="80"/>

--- a/dfdata/20220710/EDI-20220710.xlsx
+++ b/dfdata/20220710/EDI-20220710.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'11'!$A:$A</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'11'!$A$1:$N$18</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'12'!$A:$A</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'12'!$A$1:$N$18</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="B1" s="56" t="inlineStr">
         <is>
-          <t>Jul.11.2022</t>
+          <t>Jul.12.2022</t>
         </is>
       </c>
       <c r="C1" s="57" t="n"/>
@@ -1839,11 +1839,7 @@
         </is>
       </c>
       <c r="B4" s="83" t="n"/>
-      <c r="C4" s="83" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
+      <c r="C4" s="83" t="n"/>
       <c r="D4" s="77">
         <f>B4-C4</f>
         <v/>
@@ -1934,11 +1930,7 @@
         </is>
       </c>
       <c r="B6" s="83" t="n"/>
-      <c r="C6" s="83" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
+      <c r="C6" s="83" t="n"/>
       <c r="D6" s="77">
         <f>B6-C6</f>
         <v/>
@@ -1979,11 +1971,7 @@
         </is>
       </c>
       <c r="B7" s="83" t="n"/>
-      <c r="C7" s="83" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
+      <c r="C7" s="83" t="n"/>
       <c r="D7" s="77">
         <f>B7-C7</f>
         <v/>
@@ -2385,11 +2373,7 @@
         </is>
       </c>
       <c r="B16" s="83" t="n"/>
-      <c r="C16" s="83" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
+      <c r="C16" s="83" t="n"/>
       <c r="D16" s="77">
         <f>B16-C16</f>
         <v/>
@@ -2430,11 +2414,7 @@
         </is>
       </c>
       <c r="B17" s="75" t="n"/>
-      <c r="C17" s="75" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
+      <c r="C17" s="75" t="n"/>
       <c r="D17" s="77">
         <f>B17-C17</f>
         <v/>
